--- a/Homem aranha.xlsx
+++ b/Homem aranha.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alinsperedu-my.sharepoint.com/personal/arthursp2_al_insper_edu_br/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caior\OneDrive\Faculdade\CDados---Projeto-1-Arthur-e-Caio-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F265F71-42B4-4146-8DF1-003E818FF50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6038349D-0D58-4389-ACDA-E9FE45FDF2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -32,12 +32,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="503">
   <si>
     <t>Treinamento</t>
-  </si>
-  <si>
-    <t>Avalição:</t>
   </si>
   <si>
     <t>tá, com "god of war: ragnarok", "homem-aranha 2", "marvel's wolverine" e "uncharted" no pc (até então uncharted 4 e the lost legacy confirmados). a sony oficialmente foi longe de mais! 💗💗💗</t>
@@ -124,9 +121,6 @@
     <t>@tzuyuisartbw mano tô me sentindo o meme do homem aranha https://t.co/psa6qdllpn</t>
   </si>
   <si>
-    <t>filme de heroi eh homem aranha e deadpool o resto eh nerdolice</t>
-  </si>
-  <si>
     <t>sobre a showcase:
 - god of war brabo como sempre
 - wolverine vai ser um açougue então gostei
@@ -1705,12 +1699,18 @@
 wolverine
 como q faz pra ter grana pra comprar tudo isso</t>
   </si>
+  <si>
+    <t>Classificação</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1770,7 +1770,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1779,6 +1779,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1797,7 +1803,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2119,3850 +2125,4459 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B436"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A259" sqref="A259"/>
+    <sheetView topLeftCell="B389" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="B424" sqref="B424"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="255.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="255.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="B1" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>502</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+      <c r="B33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
+      <c r="B34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
+      <c r="B36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
+      <c r="B39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
+      <c r="B40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
+      <c r="B42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
+      <c r="B43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
+      <c r="B44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
+      <c r="B45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
+      <c r="B46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
+      <c r="B48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
+      <c r="B49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
+      <c r="B50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
+      <c r="B51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
+      <c r="B52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
+      <c r="B53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
+      <c r="B54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
+      <c r="B55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
+      <c r="B56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
+      <c r="B57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
+      <c r="B58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
+      <c r="B59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
+      <c r="B60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
+      <c r="B61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
+      <c r="B62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
+      <c r="B63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
+      <c r="B64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
+      <c r="B65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
+      <c r="B66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
+      <c r="B67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
+      <c r="B68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
+      <c r="B69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
+      <c r="B70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
+      <c r="B71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
+      <c r="B72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
+      <c r="B73" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
+      <c r="B74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
+      <c r="B75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
+      <c r="B76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
+      <c r="B77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
+      <c r="B78" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
+      <c r="B79" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
+      <c r="B80" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
+      <c r="B81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
+      <c r="B82" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
+      <c r="B83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
+      <c r="B84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>83</v>
       </c>
-      <c r="B83" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
+      <c r="B85" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>84</v>
       </c>
-      <c r="B84" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
+      <c r="B86" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>85</v>
       </c>
-      <c r="B85" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
+      <c r="B87" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>86</v>
       </c>
-      <c r="B86" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
+      <c r="B88" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>87</v>
       </c>
-      <c r="B87" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
+      <c r="B89" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
         <v>88</v>
       </c>
-      <c r="B88" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
+      <c r="B90" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>89</v>
       </c>
-      <c r="B89" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
+      <c r="B91" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>90</v>
       </c>
-      <c r="B90" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
+      <c r="B92" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>91</v>
       </c>
-      <c r="B91" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
+      <c r="B93" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
         <v>92</v>
       </c>
-      <c r="B92" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
+      <c r="B94" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
         <v>93</v>
       </c>
-      <c r="B93" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
+      <c r="B95" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
         <v>94</v>
       </c>
-      <c r="B94" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
+      <c r="B96" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
         <v>95</v>
       </c>
-      <c r="B95" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
+      <c r="B97" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
         <v>96</v>
       </c>
-      <c r="B96" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
+      <c r="B98" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
         <v>97</v>
       </c>
-      <c r="B97" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
+      <c r="B99" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>98</v>
       </c>
-      <c r="B98" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
+      <c r="B100" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>99</v>
       </c>
-      <c r="B99" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
+      <c r="B101" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
         <v>100</v>
       </c>
-      <c r="B100" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
+      <c r="B102" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
         <v>101</v>
       </c>
-      <c r="B101" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
+      <c r="B103" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
         <v>102</v>
       </c>
-      <c r="B102" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
+      <c r="B104" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
         <v>103</v>
       </c>
-      <c r="B103" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
+      <c r="B105" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
         <v>104</v>
       </c>
-      <c r="B104" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
+      <c r="B106" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
         <v>105</v>
       </c>
-      <c r="B105" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
+      <c r="B107" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
         <v>106</v>
       </c>
-      <c r="B106" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
+      <c r="B108" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
         <v>107</v>
       </c>
-      <c r="B107" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
+      <c r="B109" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
         <v>108</v>
       </c>
-      <c r="B108" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
+      <c r="B110" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
         <v>109</v>
       </c>
-      <c r="B109" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
+      <c r="B111" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
         <v>110</v>
       </c>
-      <c r="B110" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
+      <c r="B112" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
         <v>111</v>
       </c>
-      <c r="B111" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
+      <c r="B113" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
         <v>112</v>
       </c>
-      <c r="B112" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
+      <c r="B114" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
         <v>113</v>
       </c>
-      <c r="B113" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
+      <c r="B115" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
         <v>114</v>
       </c>
-      <c r="B114" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
+      <c r="B116" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
         <v>115</v>
       </c>
-      <c r="B115" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
+      <c r="B117" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
         <v>116</v>
       </c>
-      <c r="B116" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
+      <c r="B118" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
         <v>117</v>
       </c>
-      <c r="B117" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
+      <c r="B119" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
         <v>118</v>
       </c>
-      <c r="B118" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
+      <c r="B120" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
         <v>119</v>
       </c>
-      <c r="B119" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
+      <c r="B121" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
         <v>120</v>
       </c>
-      <c r="B120" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
+      <c r="B122" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
         <v>121</v>
       </c>
-      <c r="B121" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
+      <c r="B123" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
         <v>122</v>
       </c>
-      <c r="B122" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
+      <c r="B124" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
         <v>123</v>
       </c>
-      <c r="B123" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
+      <c r="B125" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
         <v>124</v>
       </c>
-      <c r="B124" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
+      <c r="B126" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
         <v>125</v>
       </c>
-      <c r="B125" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
+      <c r="B127" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
         <v>126</v>
       </c>
-      <c r="B126" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
+      <c r="B128" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
         <v>127</v>
       </c>
-      <c r="B127" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
+      <c r="B129" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
         <v>128</v>
       </c>
-      <c r="B128" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
+      <c r="B130" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
         <v>129</v>
       </c>
-      <c r="B129" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
+      <c r="B131" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
         <v>130</v>
       </c>
-      <c r="B130" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
+      <c r="B132" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
         <v>131</v>
       </c>
-      <c r="B131" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
+      <c r="B133" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
         <v>132</v>
       </c>
-      <c r="B132" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
+      <c r="B134" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
         <v>133</v>
       </c>
-      <c r="B133" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
+      <c r="B135" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
         <v>134</v>
       </c>
-      <c r="B134" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
+      <c r="B136" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
         <v>135</v>
       </c>
-      <c r="B135" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
+      <c r="B137" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
         <v>136</v>
       </c>
-      <c r="B136" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
+      <c r="B138" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
         <v>137</v>
       </c>
-      <c r="B137" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
+      <c r="B139" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
         <v>138</v>
       </c>
-      <c r="B138" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="s">
+      <c r="B140" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
         <v>139</v>
       </c>
-      <c r="B139" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
+      <c r="B141" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
         <v>140</v>
       </c>
-      <c r="B140" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
+      <c r="B142" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
         <v>141</v>
       </c>
-      <c r="B141" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="s">
+      <c r="B143" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
         <v>142</v>
       </c>
-      <c r="B142" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" t="s">
+      <c r="B144" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
         <v>143</v>
       </c>
-      <c r="B143" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" t="s">
+      <c r="B145" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
         <v>144</v>
       </c>
-      <c r="B144" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" t="s">
+      <c r="B146" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
         <v>145</v>
       </c>
-      <c r="B145" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" t="s">
+      <c r="B147" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
         <v>146</v>
       </c>
-      <c r="B146" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" t="s">
+      <c r="B148" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
         <v>147</v>
       </c>
-      <c r="B147" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" t="s">
+      <c r="B149" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
         <v>148</v>
       </c>
-      <c r="B148" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" t="s">
+      <c r="B150" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
         <v>149</v>
       </c>
-      <c r="B149" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" t="s">
+      <c r="B151" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
         <v>150</v>
       </c>
-      <c r="B150" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" t="s">
+      <c r="B152" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
         <v>151</v>
       </c>
-      <c r="B151" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" t="s">
+      <c r="B153" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
         <v>152</v>
       </c>
-      <c r="B152" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" t="s">
+      <c r="B154" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
         <v>153</v>
       </c>
-      <c r="B153" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" t="s">
+      <c r="B155" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
         <v>154</v>
       </c>
-      <c r="B154" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" t="s">
+      <c r="B156" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
         <v>155</v>
       </c>
-      <c r="B155" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" t="s">
+      <c r="B157" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
         <v>156</v>
       </c>
-      <c r="B156" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" t="s">
+      <c r="B158" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
         <v>157</v>
       </c>
-      <c r="B157" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" t="s">
+      <c r="B159" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
         <v>158</v>
       </c>
-      <c r="B158" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" t="s">
+      <c r="B160" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
         <v>159</v>
       </c>
-      <c r="B159" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" t="s">
+      <c r="B161" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
         <v>160</v>
       </c>
-      <c r="B160" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" t="s">
+      <c r="B162" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
         <v>161</v>
       </c>
-      <c r="B161" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" t="s">
+      <c r="B163" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
         <v>162</v>
       </c>
-      <c r="B162" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" t="s">
+      <c r="B164" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
         <v>163</v>
       </c>
-      <c r="B163" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" t="s">
+      <c r="B165" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
         <v>164</v>
       </c>
-      <c r="B164" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" t="s">
+      <c r="B166" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
         <v>165</v>
       </c>
-      <c r="B165" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" t="s">
+      <c r="B167" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
         <v>166</v>
       </c>
-      <c r="B166" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" t="s">
+      <c r="B168" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B167" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" t="s">
+      <c r="B169" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
         <v>168</v>
       </c>
-      <c r="B168" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="15">
-      <c r="A169" s="3" t="s">
+      <c r="B170" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
         <v>169</v>
       </c>
-      <c r="B169" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" t="s">
+      <c r="B171" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
         <v>170</v>
       </c>
-      <c r="B170" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" t="s">
+      <c r="B172" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
         <v>171</v>
       </c>
-      <c r="B171" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" t="s">
+      <c r="B173" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
         <v>172</v>
       </c>
-      <c r="B172" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" t="s">
+      <c r="B174" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
         <v>173</v>
       </c>
-      <c r="B173" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" t="s">
+      <c r="B175" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
         <v>174</v>
       </c>
-      <c r="B174" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" t="s">
+      <c r="B176" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
         <v>175</v>
       </c>
-      <c r="B175" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" t="s">
+      <c r="B177" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
         <v>176</v>
       </c>
-      <c r="B176" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" t="s">
+      <c r="B178" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
         <v>177</v>
       </c>
-      <c r="B177" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" t="s">
+      <c r="B179" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
         <v>178</v>
       </c>
-      <c r="B178" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" t="s">
+      <c r="B180" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
         <v>179</v>
       </c>
-      <c r="B179" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" t="s">
+      <c r="B181" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
         <v>180</v>
       </c>
-      <c r="B180" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" t="s">
+      <c r="B182" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
         <v>181</v>
       </c>
-      <c r="B181" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" t="s">
+      <c r="B183" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
         <v>182</v>
       </c>
-      <c r="B182" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" t="s">
+      <c r="B184" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
         <v>183</v>
       </c>
-      <c r="B183" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" t="s">
+      <c r="B185" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
         <v>184</v>
       </c>
-      <c r="B184" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" t="s">
+      <c r="B186" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
         <v>185</v>
       </c>
-      <c r="B185" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" t="s">
+      <c r="B187" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
         <v>186</v>
       </c>
-      <c r="B186" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" t="s">
+      <c r="B188" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
         <v>187</v>
       </c>
-      <c r="B187" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" t="s">
+      <c r="B189" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
         <v>188</v>
       </c>
-      <c r="B188" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" t="s">
+      <c r="B190" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
         <v>189</v>
       </c>
-      <c r="B189" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" t="s">
+      <c r="B191" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
         <v>190</v>
       </c>
-      <c r="B190" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" t="s">
+      <c r="B192" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
         <v>191</v>
       </c>
-      <c r="B191" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" t="s">
+      <c r="B193" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
         <v>192</v>
       </c>
-      <c r="B192" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" t="s">
+      <c r="B194" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
         <v>193</v>
       </c>
-      <c r="B193" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" t="s">
+      <c r="B195" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
         <v>194</v>
       </c>
-      <c r="B194" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" t="s">
+      <c r="B196" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
         <v>195</v>
       </c>
-      <c r="B195" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" t="s">
+      <c r="B197" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
         <v>196</v>
       </c>
-      <c r="B196" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" t="s">
+      <c r="B198" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
         <v>197</v>
       </c>
-      <c r="B197" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" t="s">
+      <c r="B199" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
         <v>198</v>
       </c>
-      <c r="B198" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" t="s">
+      <c r="B200" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
         <v>199</v>
       </c>
-      <c r="B199" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" t="s">
+      <c r="B201" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
         <v>200</v>
       </c>
-      <c r="B200" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" t="s">
+      <c r="B202" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
         <v>201</v>
       </c>
-      <c r="B201" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" t="s">
+      <c r="B203" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
         <v>202</v>
       </c>
-      <c r="B202" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" t="s">
+      <c r="B204" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
         <v>203</v>
       </c>
-      <c r="B203" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" t="s">
+      <c r="B205" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
         <v>204</v>
       </c>
-      <c r="B204" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" t="s">
+      <c r="B206" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
         <v>205</v>
       </c>
-      <c r="B205" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" t="s">
+      <c r="B207" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
         <v>206</v>
       </c>
-      <c r="B206" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" t="s">
+      <c r="B208" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
         <v>207</v>
       </c>
-      <c r="B207" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" t="s">
+      <c r="B209" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
         <v>208</v>
       </c>
-      <c r="B208" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" t="s">
+      <c r="B210" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
         <v>209</v>
       </c>
-      <c r="B209" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" t="s">
+      <c r="B211" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
         <v>210</v>
       </c>
-      <c r="B210" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211" t="s">
+      <c r="B212" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
         <v>211</v>
       </c>
-      <c r="B211" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="A212" t="s">
+      <c r="B213" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
         <v>212</v>
       </c>
-      <c r="B212" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213" t="s">
+      <c r="B214" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
         <v>213</v>
       </c>
-      <c r="B213" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214" t="s">
+      <c r="B215" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
         <v>214</v>
       </c>
-      <c r="B214" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215" t="s">
+      <c r="B216" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
         <v>215</v>
       </c>
-      <c r="B215" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" t="s">
+      <c r="B217" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
         <v>216</v>
       </c>
-      <c r="B216" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" t="s">
+      <c r="B218" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
         <v>217</v>
       </c>
-      <c r="B217" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218" t="s">
+      <c r="B219" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
         <v>218</v>
       </c>
-      <c r="B218" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" t="s">
+      <c r="B220" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
         <v>219</v>
       </c>
-      <c r="B219" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220" t="s">
+      <c r="B221" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
         <v>220</v>
       </c>
-      <c r="B220" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" t="s">
+      <c r="B222" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
         <v>221</v>
       </c>
-      <c r="B221" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222" t="s">
+      <c r="B223" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
         <v>222</v>
       </c>
-      <c r="B222" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223" t="s">
+      <c r="B224" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
         <v>223</v>
       </c>
-      <c r="B223" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224" t="s">
+      <c r="B225" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
         <v>224</v>
       </c>
-      <c r="B224" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225" t="s">
+      <c r="B226" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
         <v>225</v>
       </c>
-      <c r="B225" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" t="s">
+      <c r="B227" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
         <v>226</v>
       </c>
-      <c r="B226" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227" t="s">
+      <c r="B228" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
         <v>227</v>
       </c>
-      <c r="B227" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="A228" t="s">
+      <c r="B229" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
         <v>228</v>
       </c>
-      <c r="B228" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229" t="s">
+      <c r="B230" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
         <v>229</v>
       </c>
-      <c r="B229" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230" t="s">
+      <c r="B231" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
         <v>230</v>
       </c>
-      <c r="B230" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231" t="s">
+      <c r="B232" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
         <v>231</v>
       </c>
-      <c r="B231" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232" t="s">
+      <c r="B233" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
         <v>232</v>
       </c>
-      <c r="B232" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233" t="s">
+      <c r="B234" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
         <v>233</v>
       </c>
-      <c r="B233" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
-      <c r="A234" t="s">
+      <c r="B235" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
         <v>234</v>
       </c>
-      <c r="B234" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235" t="s">
+      <c r="B236" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
         <v>235</v>
       </c>
-      <c r="B235" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
-      <c r="A236" t="s">
+      <c r="B237" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
         <v>236</v>
       </c>
-      <c r="B236" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237" t="s">
+      <c r="B238" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
         <v>237</v>
       </c>
-      <c r="B237" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238" t="s">
+      <c r="B239" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
         <v>238</v>
       </c>
-      <c r="B238" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239" t="s">
+      <c r="B240" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
         <v>239</v>
       </c>
-      <c r="B239" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
-      <c r="A240" t="s">
+      <c r="B241" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
         <v>240</v>
       </c>
-      <c r="B240" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
-      <c r="A241" t="s">
+      <c r="B242" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
         <v>241</v>
       </c>
-      <c r="B241" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
-      <c r="A242" t="s">
+      <c r="B243" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
         <v>242</v>
       </c>
-      <c r="B242" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
-      <c r="A243" t="s">
+      <c r="B244" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
         <v>243</v>
       </c>
-      <c r="B243" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
-      <c r="A244" t="s">
+      <c r="B245" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
         <v>244</v>
       </c>
-      <c r="B244" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
-      <c r="A245" t="s">
+      <c r="B246" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
         <v>245</v>
       </c>
-      <c r="B245" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
-      <c r="A246" t="s">
+      <c r="B247" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
         <v>246</v>
       </c>
-      <c r="B246" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
-      <c r="A247" t="s">
+      <c r="B248" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
         <v>247</v>
       </c>
-      <c r="B247" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2">
-      <c r="A248" t="s">
+      <c r="B249" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
         <v>248</v>
       </c>
-      <c r="B248" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
-      <c r="A249" t="s">
+      <c r="B250" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
         <v>249</v>
       </c>
-      <c r="B249" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
-      <c r="A250" t="s">
+      <c r="B251" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
         <v>250</v>
       </c>
-      <c r="B250" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
-      <c r="A251" t="s">
+      <c r="B252" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
         <v>251</v>
       </c>
-      <c r="B251" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
-      <c r="A252" t="s">
+      <c r="B253" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
         <v>252</v>
       </c>
-      <c r="B252" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
-      <c r="A253" t="s">
+      <c r="B254" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
         <v>253</v>
       </c>
-      <c r="B253" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
-      <c r="A254" t="s">
+      <c r="B255" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
         <v>254</v>
       </c>
-      <c r="B254" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
-      <c r="A255" t="s">
+      <c r="B256" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
         <v>255</v>
       </c>
-      <c r="B255" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
-      <c r="A256" t="s">
+      <c r="B257" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
         <v>256</v>
       </c>
-      <c r="B256" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
-      <c r="A257" t="s">
+      <c r="B258" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
         <v>257</v>
       </c>
-      <c r="B257" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
-      <c r="A258" t="s">
+      <c r="B259" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
         <v>258</v>
       </c>
-      <c r="B258" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259" t="s">
+      <c r="B260" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
         <v>259</v>
       </c>
-      <c r="B259" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
-      <c r="A260" t="s">
+      <c r="B261" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
         <v>260</v>
       </c>
-      <c r="B260" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
-      <c r="A261" t="s">
+      <c r="B262" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
         <v>261</v>
       </c>
-      <c r="B261" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262" t="s">
+      <c r="B263" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
         <v>262</v>
       </c>
-      <c r="B262" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
-      <c r="A263" t="s">
+      <c r="B264" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
         <v>263</v>
       </c>
-      <c r="B263" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
-      <c r="A264" t="s">
+      <c r="B265" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
         <v>264</v>
       </c>
-      <c r="B264" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
-      <c r="A265" t="s">
+      <c r="B266" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
         <v>265</v>
       </c>
-      <c r="B265" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
-      <c r="A266" t="s">
+      <c r="B267" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
         <v>266</v>
       </c>
-      <c r="B266" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
-      <c r="A267" t="s">
+      <c r="B268" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
         <v>267</v>
       </c>
-      <c r="B267" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2">
-      <c r="A268" t="s">
+      <c r="B269" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
         <v>268</v>
       </c>
-      <c r="B268" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2">
-      <c r="A269" t="s">
+      <c r="B270" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
         <v>269</v>
       </c>
-      <c r="B269" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2">
-      <c r="A270" t="s">
+      <c r="B271" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
         <v>270</v>
       </c>
-      <c r="B270" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
-      <c r="A271" t="s">
+      <c r="B272" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
         <v>271</v>
       </c>
-      <c r="B271" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
-      <c r="A272" t="s">
+      <c r="B273" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
         <v>272</v>
       </c>
-      <c r="B272" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
-      <c r="A273" t="s">
+      <c r="B274" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
         <v>273</v>
       </c>
-      <c r="B273" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
-      <c r="A274" t="s">
+      <c r="B275" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
         <v>274</v>
       </c>
-      <c r="B274" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
-      <c r="A275" t="s">
+      <c r="B276" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
         <v>275</v>
       </c>
-      <c r="B275" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
-      <c r="A276" t="s">
+      <c r="B277" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
         <v>276</v>
       </c>
-      <c r="B276" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
-      <c r="A277" t="s">
+      <c r="B278" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
         <v>277</v>
       </c>
-      <c r="B277" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
-      <c r="A278" t="s">
+      <c r="B279" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
         <v>278</v>
       </c>
-      <c r="B278" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
-      <c r="A279" t="s">
+      <c r="B280" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
         <v>279</v>
       </c>
-      <c r="B279" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
-      <c r="A280" t="s">
+      <c r="B281" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
         <v>280</v>
       </c>
-      <c r="B280" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
-      <c r="A281" t="s">
+      <c r="B282" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
         <v>281</v>
       </c>
-      <c r="B281" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2">
-      <c r="A282" t="s">
+      <c r="B283" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
         <v>282</v>
       </c>
-      <c r="B282" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
-      <c r="A283" t="s">
+      <c r="B284" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
         <v>283</v>
       </c>
-      <c r="B283" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2">
-      <c r="A284" t="s">
+      <c r="B285" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
         <v>284</v>
       </c>
-      <c r="B284" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2">
-      <c r="A285" t="s">
+      <c r="B286" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
         <v>285</v>
       </c>
-      <c r="B285" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2">
-      <c r="A286" t="s">
+      <c r="B287" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
         <v>286</v>
       </c>
-      <c r="B286" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
-      <c r="A287" t="s">
+      <c r="B288" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
         <v>287</v>
       </c>
-      <c r="B287" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
-      <c r="A288" t="s">
+      <c r="B289" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
         <v>288</v>
       </c>
-      <c r="B288" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
-      <c r="A289" t="s">
+      <c r="B290" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
         <v>289</v>
       </c>
-      <c r="B289" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2">
-      <c r="A290" t="s">
+      <c r="B291" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
         <v>290</v>
       </c>
-      <c r="B290" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2">
-      <c r="A291" t="s">
+      <c r="B292" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
         <v>291</v>
       </c>
-      <c r="B291" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2">
-      <c r="A292" t="s">
+      <c r="B293" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
         <v>292</v>
       </c>
-      <c r="B292" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2">
-      <c r="A293" t="s">
+      <c r="B294" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
         <v>293</v>
       </c>
-      <c r="B293" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2">
-      <c r="A294" t="s">
+      <c r="B295" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
         <v>294</v>
       </c>
-      <c r="B294" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2">
-      <c r="A295" t="s">
+      <c r="B296" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
         <v>295</v>
       </c>
-      <c r="B295" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2">
-      <c r="A296" t="s">
+      <c r="B297" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
         <v>296</v>
       </c>
-      <c r="B296" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2">
-      <c r="A297" t="s">
+      <c r="B298" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
         <v>297</v>
       </c>
-      <c r="B297" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2">
-      <c r="A298" t="s">
+      <c r="B299" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
         <v>298</v>
       </c>
-      <c r="B298" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2">
-      <c r="A299" t="s">
+      <c r="B300" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
         <v>299</v>
       </c>
-      <c r="B299" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2">
-      <c r="A300" t="s">
-        <v>300</v>
-      </c>
-      <c r="B300" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2">
-      <c r="A301" t="s">
-        <v>301</v>
-      </c>
       <c r="B301" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B302" s="2"/>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B303" s="2"/>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B304" s="2"/>
     </row>
-    <row r="305" spans="2:2">
+    <row r="305" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B305" s="2"/>
     </row>
-    <row r="306" spans="2:2">
+    <row r="306" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B306" s="2"/>
     </row>
-    <row r="307" spans="2:2">
+    <row r="307" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B307" s="2"/>
     </row>
-    <row r="308" spans="2:2">
+    <row r="308" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B308" s="2"/>
     </row>
-    <row r="309" spans="2:2">
+    <row r="309" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B309" s="2"/>
     </row>
-    <row r="310" spans="2:2">
+    <row r="310" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B310" s="2"/>
     </row>
-    <row r="311" spans="2:2">
+    <row r="311" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B311" s="2"/>
     </row>
-    <row r="312" spans="2:2">
+    <row r="312" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B312" s="2"/>
     </row>
-    <row r="313" spans="2:2">
+    <row r="313" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B313" s="2"/>
     </row>
-    <row r="314" spans="2:2">
+    <row r="314" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B314" s="2"/>
     </row>
-    <row r="315" spans="2:2">
+    <row r="315" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B315" s="2"/>
     </row>
-    <row r="316" spans="2:2">
+    <row r="316" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B316" s="2"/>
     </row>
-    <row r="317" spans="2:2">
+    <row r="317" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B317" s="2"/>
     </row>
-    <row r="318" spans="2:2">
+    <row r="318" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B318" s="2"/>
     </row>
-    <row r="319" spans="2:2">
+    <row r="319" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B319" s="2"/>
     </row>
-    <row r="320" spans="2:2">
+    <row r="320" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B320" s="2"/>
     </row>
-    <row r="321" spans="2:2">
+    <row r="321" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B321" s="2"/>
     </row>
-    <row r="322" spans="2:2">
+    <row r="322" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B322" s="2"/>
     </row>
-    <row r="323" spans="2:2">
+    <row r="323" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B323" s="2"/>
     </row>
-    <row r="324" spans="2:2">
+    <row r="324" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B324" s="2"/>
     </row>
-    <row r="325" spans="2:2">
+    <row r="325" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B325" s="2"/>
     </row>
-    <row r="326" spans="2:2">
+    <row r="326" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B326" s="2"/>
     </row>
-    <row r="327" spans="2:2">
+    <row r="327" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B327" s="2"/>
     </row>
-    <row r="328" spans="2:2">
+    <row r="328" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B328" s="2"/>
     </row>
-    <row r="329" spans="2:2">
+    <row r="329" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B329" s="2"/>
     </row>
-    <row r="330" spans="2:2">
+    <row r="330" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B330" s="2"/>
     </row>
-    <row r="331" spans="2:2">
+    <row r="331" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B331" s="2"/>
     </row>
-    <row r="332" spans="2:2">
+    <row r="332" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B332" s="2"/>
     </row>
-    <row r="333" spans="2:2">
+    <row r="333" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B333" s="2"/>
     </row>
-    <row r="334" spans="2:2">
+    <row r="334" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B334" s="2"/>
     </row>
-    <row r="335" spans="2:2">
+    <row r="335" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B335" s="2"/>
     </row>
-    <row r="336" spans="2:2">
+    <row r="336" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B336" s="2"/>
     </row>
-    <row r="337" spans="2:2">
+    <row r="337" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B337" s="2"/>
     </row>
-    <row r="338" spans="2:2">
+    <row r="338" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B338" s="2"/>
     </row>
-    <row r="339" spans="2:2">
+    <row r="339" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B339" s="2"/>
     </row>
-    <row r="340" spans="2:2">
+    <row r="340" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B340" s="2"/>
     </row>
-    <row r="341" spans="2:2">
+    <row r="341" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B341" s="2"/>
     </row>
-    <row r="342" spans="2:2">
+    <row r="342" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B342" s="2"/>
     </row>
-    <row r="343" spans="2:2">
+    <row r="343" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B343" s="2"/>
     </row>
-    <row r="344" spans="2:2">
+    <row r="344" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B344" s="2"/>
     </row>
-    <row r="345" spans="2:2">
+    <row r="345" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B345" s="2"/>
     </row>
-    <row r="346" spans="2:2">
+    <row r="346" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B346" s="2"/>
     </row>
-    <row r="347" spans="2:2">
+    <row r="347" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B347" s="2"/>
     </row>
-    <row r="348" spans="2:2">
+    <row r="348" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B348" s="2"/>
     </row>
-    <row r="349" spans="2:2">
+    <row r="349" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B349" s="2"/>
     </row>
-    <row r="350" spans="2:2">
+    <row r="350" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B350" s="2"/>
     </row>
-    <row r="351" spans="2:2">
+    <row r="351" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B351" s="2"/>
     </row>
-    <row r="352" spans="2:2">
+    <row r="352" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B352" s="2"/>
     </row>
-    <row r="353" spans="2:2">
+    <row r="353" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B353" s="2"/>
     </row>
-    <row r="354" spans="2:2">
+    <row r="354" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B354" s="2"/>
     </row>
-    <row r="355" spans="2:2">
+    <row r="355" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B355" s="2"/>
     </row>
-    <row r="356" spans="2:2">
+    <row r="356" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B356" s="2"/>
     </row>
-    <row r="357" spans="2:2">
+    <row r="357" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B357" s="2"/>
     </row>
-    <row r="358" spans="2:2">
+    <row r="358" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B358" s="2"/>
     </row>
-    <row r="359" spans="2:2">
+    <row r="359" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B359" s="2"/>
     </row>
-    <row r="360" spans="2:2">
+    <row r="360" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B360" s="2"/>
     </row>
-    <row r="361" spans="2:2">
+    <row r="361" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B361" s="2"/>
     </row>
-    <row r="362" spans="2:2">
+    <row r="362" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B362" s="2"/>
     </row>
-    <row r="363" spans="2:2">
+    <row r="363" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B363" s="2"/>
     </row>
-    <row r="364" spans="2:2">
+    <row r="364" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B364" s="2"/>
     </row>
-    <row r="365" spans="2:2">
+    <row r="365" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B365" s="2"/>
     </row>
-    <row r="366" spans="2:2">
+    <row r="366" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B366" s="2"/>
     </row>
-    <row r="367" spans="2:2">
+    <row r="367" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B367" s="2"/>
     </row>
-    <row r="368" spans="2:2">
+    <row r="368" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B368" s="2"/>
     </row>
-    <row r="369" spans="2:2">
+    <row r="369" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B369" s="2"/>
     </row>
-    <row r="370" spans="2:2">
+    <row r="370" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B370" s="2"/>
     </row>
-    <row r="371" spans="2:2">
+    <row r="371" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B371" s="2"/>
     </row>
-    <row r="372" spans="2:2">
+    <row r="372" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B372" s="2"/>
     </row>
-    <row r="373" spans="2:2">
+    <row r="373" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B373" s="2"/>
     </row>
-    <row r="374" spans="2:2">
+    <row r="374" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B374" s="2"/>
     </row>
-    <row r="375" spans="2:2">
+    <row r="375" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B375" s="2"/>
     </row>
-    <row r="376" spans="2:2">
+    <row r="376" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B376" s="2"/>
     </row>
-    <row r="377" spans="2:2">
+    <row r="377" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B377" s="2"/>
     </row>
-    <row r="378" spans="2:2">
+    <row r="378" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B378" s="2"/>
     </row>
-    <row r="379" spans="2:2">
+    <row r="379" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B379" s="2"/>
     </row>
-    <row r="380" spans="2:2">
+    <row r="380" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B380" s="2"/>
     </row>
-    <row r="381" spans="2:2">
+    <row r="381" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B381" s="2"/>
     </row>
-    <row r="382" spans="2:2">
+    <row r="382" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B382" s="2"/>
     </row>
-    <row r="383" spans="2:2">
+    <row r="383" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B383" s="2"/>
     </row>
-    <row r="384" spans="2:2">
+    <row r="384" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B384" s="2"/>
     </row>
-    <row r="385" spans="2:2">
+    <row r="385" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B385" s="2"/>
     </row>
-    <row r="386" spans="2:2">
+    <row r="386" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B386" s="2"/>
     </row>
-    <row r="387" spans="2:2">
+    <row r="387" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B387" s="2"/>
     </row>
-    <row r="388" spans="2:2">
+    <row r="388" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B388" s="2"/>
     </row>
-    <row r="389" spans="2:2">
+    <row r="389" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B389" s="2"/>
     </row>
-    <row r="390" spans="2:2">
+    <row r="390" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B390" s="2"/>
     </row>
-    <row r="391" spans="2:2">
+    <row r="391" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B391" s="2"/>
     </row>
-    <row r="392" spans="2:2">
+    <row r="392" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B392" s="2"/>
     </row>
-    <row r="393" spans="2:2">
+    <row r="393" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B393" s="2"/>
     </row>
-    <row r="394" spans="2:2">
+    <row r="394" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B394" s="2"/>
     </row>
-    <row r="395" spans="2:2">
+    <row r="395" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B395" s="2"/>
     </row>
-    <row r="396" spans="2:2">
+    <row r="396" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B396" s="2"/>
     </row>
-    <row r="397" spans="2:2">
+    <row r="397" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B397" s="2"/>
     </row>
-    <row r="398" spans="2:2">
+    <row r="398" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B398" s="2"/>
     </row>
-    <row r="399" spans="2:2">
+    <row r="399" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B399" s="2"/>
     </row>
-    <row r="400" spans="2:2">
+    <row r="400" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B400" s="2"/>
     </row>
-    <row r="401" spans="2:2">
+    <row r="401" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B401" s="2"/>
     </row>
-    <row r="402" spans="2:2">
+    <row r="402" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B402" s="2"/>
     </row>
-    <row r="403" spans="2:2">
+    <row r="403" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B403" s="2"/>
     </row>
-    <row r="404" spans="2:2">
+    <row r="404" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B404" s="2"/>
     </row>
-    <row r="405" spans="2:2">
+    <row r="405" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B405" s="2"/>
     </row>
-    <row r="406" spans="2:2">
+    <row r="406" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B406" s="2"/>
     </row>
-    <row r="407" spans="2:2">
+    <row r="407" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B407" s="2"/>
     </row>
-    <row r="408" spans="2:2">
+    <row r="408" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B408" s="2"/>
     </row>
-    <row r="409" spans="2:2">
+    <row r="409" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B409" s="2"/>
     </row>
-    <row r="410" spans="2:2">
+    <row r="410" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B410" s="2"/>
     </row>
-    <row r="411" spans="2:2">
+    <row r="411" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B411" s="2"/>
     </row>
-    <row r="412" spans="2:2">
+    <row r="412" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B412" s="2"/>
     </row>
-    <row r="413" spans="2:2">
+    <row r="413" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B413" s="2"/>
     </row>
-    <row r="414" spans="2:2">
+    <row r="414" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B414" s="2"/>
     </row>
-    <row r="415" spans="2:2">
+    <row r="415" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B415" s="2"/>
     </row>
-    <row r="416" spans="2:2">
+    <row r="416" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B416" s="2"/>
     </row>
-    <row r="417" spans="2:2">
+    <row r="417" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B417" s="2"/>
     </row>
-    <row r="418" spans="2:2">
+    <row r="418" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B418" s="2"/>
     </row>
-    <row r="419" spans="2:2">
+    <row r="419" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B419" s="2"/>
     </row>
-    <row r="420" spans="2:2">
+    <row r="420" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B420" s="2"/>
     </row>
-    <row r="421" spans="2:2">
+    <row r="421" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B421" s="2"/>
     </row>
-    <row r="422" spans="2:2">
+    <row r="422" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B422" s="2"/>
     </row>
-    <row r="423" spans="2:2">
+    <row r="423" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B423" s="2"/>
     </row>
-    <row r="424" spans="2:2">
-      <c r="B424" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="425" spans="2:2">
+    <row r="424" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B424" s="5"/>
+    </row>
+    <row r="425" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B425" s="2"/>
     </row>
-    <row r="426" spans="2:2">
+    <row r="426" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B426" s="2"/>
     </row>
-    <row r="427" spans="2:2">
+    <row r="427" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B427" s="2"/>
     </row>
-    <row r="428" spans="2:2">
+    <row r="428" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B428" s="2"/>
     </row>
-    <row r="429" spans="2:2">
+    <row r="429" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B429" s="2"/>
     </row>
-    <row r="430" spans="2:2">
+    <row r="430" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B430" s="2"/>
     </row>
-    <row r="431" spans="2:2">
+    <row r="431" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B431" s="2"/>
     </row>
-    <row r="432" spans="2:2">
+    <row r="432" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B432" s="2"/>
     </row>
-    <row r="433" spans="2:2">
+    <row r="433" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B433" s="2"/>
     </row>
-    <row r="434" spans="2:2">
+    <row r="434" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B434" s="2"/>
     </row>
-    <row r="435" spans="2:2">
+    <row r="435" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B435" s="2"/>
     </row>
-    <row r="436" spans="2:2">
+    <row r="436" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B436" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A201"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="221.90625" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
+      <c r="B164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
+      <c r="B179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" s="3" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
-        <v>502</v>
+      <c r="B201">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Homem aranha.xlsx
+++ b/Homem aranha.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caior\OneDrive\Faculdade\CDados---Projeto-1-Arthur-e-Caio-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caior\OneDrive\Faculdade\2° PERÍODO\Ciência dos Dados\Projetos\CDados---Projeto-1-Arthur-e-Caio-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6038349D-0D58-4389-ACDA-E9FE45FDF2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01CA60E-1861-4643-A93A-178FCB45F087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="502">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1701,9 +1701,6 @@
   </si>
   <si>
     <t>Classificação</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2123,10 +2120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B436"/>
+  <dimension ref="A1:B435"/>
   <sheetViews>
-    <sheetView topLeftCell="B389" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="B424" sqref="B424"/>
+    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2329,31 +2326,31 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>502</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>26</v>
+      <c r="A28" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -2361,7 +2358,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
@@ -2369,23 +2366,23 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2">
         <v>0</v>
@@ -2393,7 +2390,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2">
         <v>0</v>
@@ -2401,7 +2398,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2">
         <v>0</v>
@@ -2409,7 +2406,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
@@ -2417,15 +2414,15 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2">
         <v>1</v>
@@ -2433,15 +2430,15 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
@@ -2449,23 +2446,23 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2">
         <v>0</v>
@@ -2473,7 +2470,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2">
         <v>0</v>
@@ -2481,7 +2478,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2">
         <v>0</v>
@@ -2489,7 +2486,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2">
         <v>0</v>
@@ -2497,23 +2494,23 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2">
         <v>0</v>
@@ -2521,23 +2518,23 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="2">
         <v>0</v>
@@ -2545,7 +2542,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2">
         <v>0</v>
@@ -2553,7 +2550,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="2">
         <v>0</v>
@@ -2561,7 +2558,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2">
         <v>0</v>
@@ -2569,7 +2566,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" s="2">
         <v>0</v>
@@ -2577,7 +2574,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" s="2">
         <v>0</v>
@@ -2585,15 +2582,15 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" s="2">
         <v>1</v>
@@ -2601,7 +2598,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="2">
         <v>1</v>
@@ -2609,31 +2606,31 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2">
         <v>0</v>
@@ -2641,7 +2638,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" s="2">
         <v>0</v>
@@ -2649,23 +2646,23 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" s="2">
         <v>0</v>
@@ -2673,7 +2670,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" s="2">
         <v>0</v>
@@ -2681,15 +2678,15 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" s="2">
         <v>1</v>
@@ -2697,7 +2694,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" s="2">
         <v>1</v>
@@ -2705,15 +2702,15 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" s="2">
         <v>0</v>
@@ -2721,7 +2718,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" s="2">
         <v>0</v>
@@ -2729,7 +2726,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" s="2">
         <v>0</v>
@@ -2737,23 +2734,23 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" s="2">
         <v>0</v>
@@ -2761,55 +2758,55 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>78</v>
+      <c r="A80" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" s="2">
         <v>1</v>
@@ -2817,7 +2814,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" s="2">
         <v>1</v>
@@ -2825,15 +2822,15 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2">
         <v>0</v>
@@ -2841,7 +2838,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2">
         <v>0</v>
@@ -2849,7 +2846,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2">
         <v>0</v>
@@ -2857,7 +2854,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2">
         <v>0</v>
@@ -2865,7 +2862,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2">
         <v>0</v>
@@ -2873,23 +2870,23 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2">
         <v>0</v>
@@ -2897,7 +2894,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2">
         <v>0</v>
@@ -2905,7 +2902,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2">
         <v>0</v>
@@ -2913,7 +2910,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2">
         <v>0</v>
@@ -2921,7 +2918,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2">
         <v>0</v>
@@ -2929,15 +2926,15 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" s="2">
         <v>1</v>
@@ -2945,7 +2942,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" s="2">
         <v>1</v>
@@ -2953,31 +2950,31 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" s="2">
         <v>0</v>
@@ -2985,7 +2982,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" s="2">
         <v>0</v>
@@ -2993,7 +2990,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2">
         <v>0</v>
@@ -3001,15 +2998,15 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B110" s="2">
         <v>1</v>
@@ -3017,7 +3014,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111" s="2">
         <v>1</v>
@@ -3025,31 +3022,31 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2">
         <v>0</v>
@@ -3057,23 +3054,23 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118" s="2">
         <v>0</v>
@@ -3081,23 +3078,23 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B119" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B120" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B121" s="2">
         <v>0</v>
@@ -3105,7 +3102,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122" s="2">
         <v>0</v>
@@ -3113,15 +3110,15 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B123" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B124" s="2">
         <v>1</v>
@@ -3129,15 +3126,15 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B125" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B126" s="2">
         <v>0</v>
@@ -3145,7 +3142,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B127" s="2">
         <v>0</v>
@@ -3153,7 +3150,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B128" s="2">
         <v>0</v>
@@ -3161,15 +3158,15 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B129" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B130" s="2">
         <v>1</v>
@@ -3177,7 +3174,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B131" s="2">
         <v>1</v>
@@ -3185,31 +3182,31 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B132" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B133" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B134" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B135" s="2">
         <v>0</v>
@@ -3217,7 +3214,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B136" s="2">
         <v>0</v>
@@ -3225,31 +3222,31 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B137" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B138" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B140" s="2">
         <v>1</v>
@@ -3257,15 +3254,15 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B141" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B142" s="2">
         <v>0</v>
@@ -3273,7 +3270,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B143" s="2">
         <v>0</v>
@@ -3281,15 +3278,15 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B144" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B145" s="2">
         <v>1</v>
@@ -3297,7 +3294,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B146" s="2">
         <v>1</v>
@@ -3305,15 +3302,15 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B147" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B148" s="2">
         <v>0</v>
@@ -3321,7 +3318,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B149" s="2">
         <v>0</v>
@@ -3329,7 +3326,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B150" s="2">
         <v>0</v>
@@ -3337,7 +3334,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B151" s="2">
         <v>0</v>
@@ -3345,7 +3342,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B152" s="2">
         <v>0</v>
@@ -3353,7 +3350,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B153" s="2">
         <v>0</v>
@@ -3361,7 +3358,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B154" s="2">
         <v>0</v>
@@ -3369,15 +3366,15 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B155" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B156" s="2">
         <v>1</v>
@@ -3385,7 +3382,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B157" s="2">
         <v>1</v>
@@ -3393,15 +3390,15 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B158" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B159" s="2">
         <v>0</v>
@@ -3409,7 +3406,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B160" s="2">
         <v>0</v>
@@ -3417,23 +3414,23 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B161" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B162" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B163" s="2">
         <v>0</v>
@@ -3441,7 +3438,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B164" s="2">
         <v>0</v>
@@ -3449,7 +3446,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B165" s="2">
         <v>0</v>
@@ -3457,7 +3454,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B166" s="2">
         <v>0</v>
@@ -3465,47 +3462,47 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B167" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>166</v>
+      <c r="A168" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="B168" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A169" s="3" t="s">
-        <v>167</v>
+      <c r="A169" t="s">
+        <v>168</v>
       </c>
       <c r="B169" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B170" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B171" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B172" s="2">
         <v>1</v>
@@ -3513,7 +3510,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B173" s="2">
         <v>1</v>
@@ -3521,7 +3518,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B174" s="2">
         <v>1</v>
@@ -3529,55 +3526,55 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B175" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B176" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B177" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B178" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B179" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B180" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B181" s="2">
         <v>1</v>
@@ -3585,15 +3582,15 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B182" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B183" s="2">
         <v>0</v>
@@ -3601,7 +3598,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B184" s="2">
         <v>0</v>
@@ -3609,39 +3606,39 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B185" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B186" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B187" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B188" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B189" s="2">
         <v>0</v>
@@ -3649,7 +3646,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B190" s="2">
         <v>0</v>
@@ -3657,23 +3654,23 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B191" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B192" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B193" s="2">
         <v>0</v>
@@ -3681,7 +3678,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B194" s="2">
         <v>0</v>
@@ -3689,7 +3686,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B195" s="2">
         <v>0</v>
@@ -3697,31 +3694,31 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B196" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B197" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B198" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B199" s="2">
         <v>1</v>
@@ -3729,7 +3726,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B200" s="2">
         <v>1</v>
@@ -3737,15 +3734,15 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B201" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B202" s="2">
         <v>0</v>
@@ -3753,7 +3750,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B203" s="2">
         <v>0</v>
@@ -3761,7 +3758,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B204" s="2">
         <v>0</v>
@@ -3769,7 +3766,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B205" s="2">
         <v>0</v>
@@ -3777,7 +3774,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B206" s="2">
         <v>0</v>
@@ -3785,7 +3782,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B207" s="2">
         <v>0</v>
@@ -3793,15 +3790,15 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B208" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B209" s="2">
         <v>1</v>
@@ -3809,15 +3806,15 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B210" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B211" s="2">
         <v>0</v>
@@ -3825,7 +3822,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B212" s="2">
         <v>0</v>
@@ -3833,23 +3830,23 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B213" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B214" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B215" s="2">
         <v>0</v>
@@ -3857,23 +3854,23 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B216" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B217" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B218" s="2">
         <v>0</v>
@@ -3881,23 +3878,23 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B219" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B220" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B221" s="2">
         <v>0</v>
@@ -3905,7 +3902,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B222" s="2">
         <v>0</v>
@@ -3913,7 +3910,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B223" s="2">
         <v>0</v>
@@ -3921,7 +3918,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B224" s="2">
         <v>0</v>
@@ -3929,39 +3926,39 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B225" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B226" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B227" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B228" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B229" s="2">
         <v>0</v>
@@ -3969,23 +3966,23 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B230" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B231" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B232" s="2">
         <v>0</v>
@@ -3993,23 +3990,23 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B233" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B234" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B235" s="2">
         <v>0</v>
@@ -4017,7 +4014,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B236" s="2">
         <v>0</v>
@@ -4025,23 +4022,23 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B237" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B238" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B239" s="2">
         <v>0</v>
@@ -4049,23 +4046,23 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B240" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B241" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B242" s="2">
         <v>0</v>
@@ -4073,7 +4070,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B243" s="2">
         <v>0</v>
@@ -4081,7 +4078,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B244" s="2">
         <v>0</v>
@@ -4089,7 +4086,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B245" s="2">
         <v>0</v>
@@ -4097,7 +4094,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B246" s="2">
         <v>0</v>
@@ -4105,7 +4102,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B247" s="2">
         <v>0</v>
@@ -4113,23 +4110,23 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B248" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B249" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B250" s="2">
         <v>0</v>
@@ -4137,7 +4134,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B251" s="2">
         <v>0</v>
@@ -4145,15 +4142,15 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B252" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B253" s="2">
         <v>1</v>
@@ -4161,7 +4158,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B254" s="2">
         <v>1</v>
@@ -4169,7 +4166,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B255" s="2">
         <v>1</v>
@@ -4177,31 +4174,31 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B256" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B257" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B258" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B259" s="2">
         <v>0</v>
@@ -4209,7 +4206,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B260" s="2">
         <v>0</v>
@@ -4217,7 +4214,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B261" s="2">
         <v>0</v>
@@ -4225,15 +4222,15 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B262" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B263" s="2">
         <v>1</v>
@@ -4241,15 +4238,15 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B264" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B265" s="2">
         <v>0</v>
@@ -4257,15 +4254,15 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B266" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B267" s="2">
         <v>1</v>
@@ -4273,7 +4270,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B268" s="2">
         <v>1</v>
@@ -4281,15 +4278,15 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B269" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B270" s="2">
         <v>0</v>
@@ -4297,7 +4294,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B271" s="2">
         <v>0</v>
@@ -4305,23 +4302,23 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B272" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B273" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B274" s="2">
         <v>0</v>
@@ -4329,7 +4326,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B275" s="2">
         <v>0</v>
@@ -4337,23 +4334,23 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B276" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B277" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B278" s="2">
         <v>0</v>
@@ -4361,23 +4358,23 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B279" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B280" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B281" s="2">
         <v>0</v>
@@ -4385,23 +4382,23 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B282" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B283" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B284" s="2">
         <v>0</v>
@@ -4409,23 +4406,23 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B285" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B286" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B287" s="2">
         <v>0</v>
@@ -4433,7 +4430,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B288" s="2">
         <v>0</v>
@@ -4441,7 +4438,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B289" s="2">
         <v>0</v>
@@ -4449,23 +4446,23 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B290" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B291" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B292" s="2">
         <v>0</v>
@@ -4473,7 +4470,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B293" s="2">
         <v>0</v>
@@ -4481,7 +4478,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B294" s="2">
         <v>0</v>
@@ -4489,23 +4486,23 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B295" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B296" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B297" s="2">
         <v>0</v>
@@ -4513,7 +4510,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B298" s="2">
         <v>0</v>
@@ -4521,27 +4518,22 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B299" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B300" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A301" t="s">
-        <v>299</v>
-      </c>
-      <c r="B301" s="2">
-        <v>0</v>
-      </c>
+      <c r="B301" s="2"/>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B302" s="2"/>
@@ -4907,10 +4899,10 @@
       <c r="B422" s="2"/>
     </row>
     <row r="423" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B423" s="2"/>
+      <c r="B423" s="5"/>
     </row>
     <row r="424" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B424" s="5"/>
+      <c r="B424" s="2"/>
     </row>
     <row r="425" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B425" s="2"/>
@@ -4944,9 +4936,6 @@
     </row>
     <row r="435" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B435" s="2"/>
-    </row>
-    <row r="436" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B436" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4958,7 +4947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+    <sheetView zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/Homem aranha.xlsx
+++ b/Homem aranha.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caior\OneDrive\Faculdade\2° PERÍODO\Ciência dos Dados\Projetos\CDados---Projeto-1-Arthur-e-Caio-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caior\OneDrive\Faculdade\2° PERÍODO\Ciência dos Dados\Projetos\Homem-Aranha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01CA60E-1861-4643-A93A-178FCB45F087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6384F8A6-23C0-4816-991F-08996E485316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2122,8 +2122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B435"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
